--- a/helloWorld2/tester2.xlsx
+++ b/helloWorld2/tester2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" state="visible" r:id="rId1"/>
@@ -522,6 +522,169 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Tester'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Tester'!$C$2:$C$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -813,11 +976,11 @@
   </sheetPr>
   <dimension ref="A1:AQ73"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="22.81" customWidth="1" style="39" min="3" max="3"/>
     <col width="19.57" customWidth="1" style="39" min="5" max="5"/>
@@ -1383,7 +1546,7 @@
     </row>
     <row r="8" ht="12.8" customHeight="1" s="40">
       <c r="A8" s="49" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B8" s="49" t="n">
         <v>0</v>
@@ -3930,7 +4093,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="22.28" customWidth="1" style="39" min="2" max="2"/>
   </cols>
@@ -4304,7 +4467,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="39.7" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="39.7" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="20.7" customWidth="1" style="69" min="1" max="1"/>
     <col width="11.52" customWidth="1" style="69" min="2" max="2"/>
@@ -5183,7 +5346,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
@@ -5297,7 +5460,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="13.4" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
@@ -5333,7 +5496,7 @@
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
@@ -5801,76 +5964,122 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.56" customWidth="1" style="54" min="1" max="3"/>
+  </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="54" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
+      <c r="B1" s="54" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="C1" s="54" t="inlineStr">
+        <is>
+          <t>New HP</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="40">
-      <c r="A2" s="39" t="n">
+      <c r="A2" s="54" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="40">
-      <c r="A3" s="39" t="n">
+      <c r="A3" s="54" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="40">
-      <c r="A4" s="39" t="n">
+      <c r="A4" s="54" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="40">
-      <c r="A5" s="39" t="n">
+      <c r="A5" s="54" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="40">
-      <c r="A6" s="39" t="n">
+      <c r="A6" s="54" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="40">
-      <c r="A7" s="39" t="n">
+      <c r="A7" s="54" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="40">
-      <c r="A8" s="39" t="n">
+      <c r="A8" s="54" t="n">
         <v>143</v>
       </c>
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="54" t="n">
         <v>-5</v>
       </c>
-      <c r="C8" s="39" t="n">
+      <c r="C8" s="54" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" ht="12.8" customHeight="1" s="40">
+      <c r="A9" s="54" t="n">
         <v>138</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="54" t="n">
         <v>-5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="54" t="n">
         <v>133</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="n">
+        <v>133</v>
+      </c>
+      <c r="B10" s="39" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="n">
+        <v>128</v>
+      </c>
+      <c r="B11" s="39" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>123</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5885,6 +6094,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5900,7 +6110,7 @@
       <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="26.89" customWidth="1" style="39" min="34" max="34"/>
   </cols>
@@ -6776,7 +6986,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="27.97" customWidth="1" style="39" min="1" max="1"/>
     <col width="22.89" customWidth="1" style="39" min="56" max="56"/>
@@ -6999,7 +7209,7 @@
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
@@ -7365,7 +7575,7 @@
       <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
@@ -8029,7 +8239,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.84" customWidth="1" style="39" min="1" max="1"/>
     <col width="13.37" customWidth="1" style="54" min="2" max="2"/>
@@ -8303,7 +8513,7 @@
       <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="26.26" customWidth="1" style="39" min="1" max="1"/>
     <col width="53.77" customWidth="1" style="39" min="3" max="3"/>
@@ -10792,7 +11002,7 @@
       <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="29.18" customWidth="1" style="39" min="1" max="1"/>
     <col width="47.52" customWidth="1" style="39" min="3" max="4"/>
@@ -13450,7 +13660,7 @@
       <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="40">
       <c r="A1" s="39" t="inlineStr">
